--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1777,28 +1777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>471.2651691478007</v>
+        <v>523.0653759207017</v>
       </c>
       <c r="AB2" t="n">
-        <v>644.805795179947</v>
+        <v>715.6811233504673</v>
       </c>
       <c r="AC2" t="n">
-        <v>583.2664350785896</v>
+        <v>647.3775214026631</v>
       </c>
       <c r="AD2" t="n">
-        <v>471265.1691478007</v>
+        <v>523065.3759207018</v>
       </c>
       <c r="AE2" t="n">
-        <v>644805.795179947</v>
+        <v>715681.1233504673</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.56216820027723e-06</v>
+        <v>3.693786717582481e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.8625</v>
       </c>
       <c r="AH2" t="n">
-        <v>583266.4350785896</v>
+        <v>647377.5214026631</v>
       </c>
     </row>
     <row r="3">
@@ -1883,28 +1883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>170.7761898939365</v>
+        <v>196.591041934366</v>
       </c>
       <c r="AB3" t="n">
-        <v>233.663517126545</v>
+        <v>268.9845365591374</v>
       </c>
       <c r="AC3" t="n">
-        <v>211.362999000861</v>
+        <v>243.3130299121802</v>
       </c>
       <c r="AD3" t="n">
-        <v>170776.1898939365</v>
+        <v>196591.041934366</v>
       </c>
       <c r="AE3" t="n">
-        <v>233663.517126545</v>
+        <v>268984.5365591375</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.678075936815462e-06</v>
+        <v>6.744215605119707e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.495833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>211362.999000861</v>
+        <v>243313.0299121802</v>
       </c>
     </row>
     <row r="4">
@@ -1989,28 +1989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>168.9523000721568</v>
+        <v>194.7671521125864</v>
       </c>
       <c r="AB4" t="n">
-        <v>231.1679906080472</v>
+        <v>266.4890100406398</v>
       </c>
       <c r="AC4" t="n">
-        <v>209.1056420307944</v>
+        <v>241.0556729421137</v>
       </c>
       <c r="AD4" t="n">
-        <v>168952.3000721568</v>
+        <v>194767.1521125864</v>
       </c>
       <c r="AE4" t="n">
-        <v>231167.9906080472</v>
+        <v>266489.0100406398</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.721549496212069e-06</v>
+        <v>6.806889888661219e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.4375</v>
       </c>
       <c r="AH4" t="n">
-        <v>209105.6420307944</v>
+        <v>241055.6729421137</v>
       </c>
     </row>
   </sheetData>
@@ -2286,28 +2286,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>289.7402415949529</v>
+        <v>323.410025323516</v>
       </c>
       <c r="AB2" t="n">
-        <v>396.4353809875357</v>
+        <v>442.5038644909791</v>
       </c>
       <c r="AC2" t="n">
-        <v>358.6001446266362</v>
+        <v>400.2719167220337</v>
       </c>
       <c r="AD2" t="n">
-        <v>289740.2415949529</v>
+        <v>323410.025323516</v>
       </c>
       <c r="AE2" t="n">
-        <v>396435.3809875356</v>
+        <v>442503.8644909791</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.423364915697494e-06</v>
+        <v>5.01167745317773e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.183333333333332</v>
       </c>
       <c r="AH2" t="n">
-        <v>358600.1446266362</v>
+        <v>400271.9167220337</v>
       </c>
     </row>
     <row r="3">
@@ -2392,28 +2392,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.8175512113905</v>
+        <v>197.4019045768306</v>
       </c>
       <c r="AB3" t="n">
-        <v>224.1424006876182</v>
+        <v>270.093994599292</v>
       </c>
       <c r="AC3" t="n">
-        <v>202.7505645518915</v>
+        <v>244.3166028341169</v>
       </c>
       <c r="AD3" t="n">
-        <v>163817.5512113905</v>
+        <v>197401.9045768306</v>
       </c>
       <c r="AE3" t="n">
-        <v>224142.4006876182</v>
+        <v>270093.994599292</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.730443188262119e-06</v>
+        <v>6.925190873296418e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.645833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>202750.5645518915</v>
+        <v>244316.6028341169</v>
       </c>
     </row>
   </sheetData>
@@ -2689,28 +2689,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.4880875098123</v>
+        <v>216.4719911007508</v>
       </c>
       <c r="AB2" t="n">
-        <v>253.7929844876918</v>
+        <v>296.186528294147</v>
       </c>
       <c r="AC2" t="n">
-        <v>229.5713382489513</v>
+        <v>267.9189017342443</v>
       </c>
       <c r="AD2" t="n">
-        <v>185488.0875098123</v>
+        <v>216471.9911007507</v>
       </c>
       <c r="AE2" t="n">
-        <v>253792.9844876918</v>
+        <v>296186.5282941471</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.235081553424947e-06</v>
+        <v>6.552193911610115e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.283333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>229571.3382489514</v>
+        <v>267918.9017342443</v>
       </c>
     </row>
   </sheetData>
@@ -2986,28 +2986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.1542347993973</v>
+        <v>203.069504645783</v>
       </c>
       <c r="AB2" t="n">
-        <v>234.1807748443604</v>
+        <v>277.8486550504971</v>
       </c>
       <c r="AC2" t="n">
-        <v>211.830890368064</v>
+        <v>251.3311693755958</v>
       </c>
       <c r="AD2" t="n">
-        <v>171154.2347993973</v>
+        <v>203069.504645783</v>
       </c>
       <c r="AE2" t="n">
-        <v>234180.7748443604</v>
+        <v>277848.6550504972</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.52698177007935e-06</v>
+        <v>6.841600244356172e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.414583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>211830.890368064</v>
+        <v>251331.1693755958</v>
       </c>
     </row>
     <row r="3">
@@ -3092,28 +3092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>171.291609232423</v>
+        <v>203.2068790788087</v>
       </c>
       <c r="AB3" t="n">
-        <v>234.3687366041582</v>
+        <v>278.036616810295</v>
       </c>
       <c r="AC3" t="n">
-        <v>212.0009133213129</v>
+        <v>251.5011923288446</v>
       </c>
       <c r="AD3" t="n">
-        <v>171291.609232423</v>
+        <v>203206.8790788087</v>
       </c>
       <c r="AE3" t="n">
-        <v>234368.7366041582</v>
+        <v>278036.616810295</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.539869974406977e-06</v>
+        <v>6.861078109820531e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.393750000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>212000.9133213129</v>
+        <v>251501.1923288446</v>
       </c>
     </row>
   </sheetData>
@@ -3389,28 +3389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>205.7630288507038</v>
+        <v>243.3864948358168</v>
       </c>
       <c r="AB2" t="n">
-        <v>281.5340536975692</v>
+        <v>333.0121396885494</v>
       </c>
       <c r="AC2" t="n">
-        <v>254.664838748282</v>
+        <v>301.2299284622469</v>
       </c>
       <c r="AD2" t="n">
-        <v>205763.0288507038</v>
+        <v>243386.4948358168</v>
       </c>
       <c r="AE2" t="n">
-        <v>281534.0536975692</v>
+        <v>333012.1396885494</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.854033700908311e-06</v>
+        <v>6.091253978660965e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.454166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>254664.838748282</v>
+        <v>301229.9284622469</v>
       </c>
     </row>
   </sheetData>
@@ -3686,28 +3686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>324.0609648035082</v>
+        <v>366.4318780657099</v>
       </c>
       <c r="AB2" t="n">
-        <v>443.3945086049276</v>
+        <v>501.3682614030383</v>
       </c>
       <c r="AC2" t="n">
-        <v>401.0775590117739</v>
+        <v>453.518378209506</v>
       </c>
       <c r="AD2" t="n">
-        <v>324060.9648035083</v>
+        <v>366431.8780657099</v>
       </c>
       <c r="AE2" t="n">
-        <v>443394.5086049276</v>
+        <v>501368.2614030383</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.179340889311663e-06</v>
+        <v>4.635117490293573e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.799999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>401077.5590117738</v>
+        <v>453518.3782095059</v>
       </c>
     </row>
     <row r="3">
@@ -3792,28 +3792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>165.2686115009393</v>
+        <v>190.7765003128315</v>
       </c>
       <c r="AB3" t="n">
-        <v>226.1278053920398</v>
+        <v>261.0288241930859</v>
       </c>
       <c r="AC3" t="n">
-        <v>204.5464850178567</v>
+        <v>236.1165995684297</v>
       </c>
       <c r="AD3" t="n">
-        <v>165268.6115009393</v>
+        <v>190776.5003128315</v>
       </c>
       <c r="AE3" t="n">
-        <v>226127.8053920398</v>
+        <v>261028.8241930859</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.725190331024212e-06</v>
+        <v>6.888790196083129e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.59375</v>
       </c>
       <c r="AH3" t="n">
-        <v>204546.4850178567</v>
+        <v>236116.5995684297</v>
       </c>
     </row>
     <row r="4">
@@ -3898,28 +3898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>165.7938990719087</v>
+        <v>191.301787883801</v>
       </c>
       <c r="AB4" t="n">
-        <v>226.8465270206919</v>
+        <v>261.747545821738</v>
       </c>
       <c r="AC4" t="n">
-        <v>205.1966128630027</v>
+        <v>236.7667274135756</v>
       </c>
       <c r="AD4" t="n">
-        <v>165793.8990719087</v>
+        <v>191301.787883801</v>
       </c>
       <c r="AE4" t="n">
-        <v>226846.5270206919</v>
+        <v>261747.545821738</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.725489450498228e-06</v>
+        <v>6.889226278263042e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.59375</v>
       </c>
       <c r="AH4" t="n">
-        <v>205196.6128630027</v>
+        <v>236766.7274135756</v>
       </c>
     </row>
   </sheetData>
@@ -4195,28 +4195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>226.7213405814377</v>
+        <v>263.9834913412311</v>
       </c>
       <c r="AB2" t="n">
-        <v>310.2101404230025</v>
+        <v>361.1938589827689</v>
       </c>
       <c r="AC2" t="n">
-        <v>280.6041200037894</v>
+        <v>326.7220240202176</v>
       </c>
       <c r="AD2" t="n">
-        <v>226721.3405814377</v>
+        <v>263983.4913412311</v>
       </c>
       <c r="AE2" t="n">
-        <v>310210.1404230025</v>
+        <v>361193.8589827688</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.547871716733236e-06</v>
+        <v>5.684523877034647e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.51041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>280604.1200037894</v>
+        <v>326722.0240202176</v>
       </c>
     </row>
   </sheetData>
@@ -4492,28 +4492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>197.6124685503989</v>
+        <v>230.54531983829</v>
       </c>
       <c r="AB2" t="n">
-        <v>270.3820975173549</v>
+        <v>315.4422775442837</v>
       </c>
       <c r="AC2" t="n">
-        <v>244.577209614035</v>
+        <v>285.3369093015678</v>
       </c>
       <c r="AD2" t="n">
-        <v>197612.4685503989</v>
+        <v>230545.31983829</v>
       </c>
       <c r="AE2" t="n">
-        <v>270382.0975173549</v>
+        <v>315442.2775442837</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.198530872677557e-06</v>
+        <v>6.234160004233338e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.714583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>244577.2096140349</v>
+        <v>285336.9093015678</v>
       </c>
     </row>
     <row r="3">
@@ -4598,28 +4598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>162.3219252880511</v>
+        <v>195.1694357213707</v>
       </c>
       <c r="AB3" t="n">
-        <v>222.0960193169473</v>
+        <v>267.0394322216785</v>
       </c>
       <c r="AC3" t="n">
-        <v>200.8994869471225</v>
+        <v>241.5535636027166</v>
       </c>
       <c r="AD3" t="n">
-        <v>162321.9252880511</v>
+        <v>195169.4357213707</v>
       </c>
       <c r="AE3" t="n">
-        <v>222096.0193169473</v>
+        <v>267039.4322216784</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.674795596142906e-06</v>
+        <v>6.94133843890361e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.929166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>200899.4869471225</v>
+        <v>241553.5636027166</v>
       </c>
     </row>
   </sheetData>
@@ -4895,28 +4895,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>252.5097480495881</v>
+        <v>294.2169378032532</v>
       </c>
       <c r="AB2" t="n">
-        <v>345.4949772251506</v>
+        <v>402.56059423763</v>
       </c>
       <c r="AC2" t="n">
-        <v>312.5214215041313</v>
+        <v>364.1407761209323</v>
       </c>
       <c r="AD2" t="n">
-        <v>252509.7480495881</v>
+        <v>294216.9378032532</v>
       </c>
       <c r="AE2" t="n">
-        <v>345494.9772251506</v>
+        <v>402560.59423763</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.670693314372795e-06</v>
+        <v>5.397543377356494e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.645833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>312521.4215041313</v>
+        <v>364140.7761209324</v>
       </c>
     </row>
     <row r="3">
@@ -5001,28 +5001,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.1747244111578</v>
+        <v>196.5234080431725</v>
       </c>
       <c r="AB3" t="n">
-        <v>223.2628567000233</v>
+        <v>268.8919968854099</v>
       </c>
       <c r="AC3" t="n">
-        <v>201.9549630080246</v>
+        <v>243.229322095033</v>
       </c>
       <c r="AD3" t="n">
-        <v>163174.7244111578</v>
+        <v>196523.4080431725</v>
       </c>
       <c r="AE3" t="n">
-        <v>223262.8567000233</v>
+        <v>268891.9968854099</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.716568204518443e-06</v>
+        <v>6.935442243694682e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.729166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>201954.9630080246</v>
+        <v>243229.322095033</v>
       </c>
     </row>
   </sheetData>
@@ -5298,28 +5298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>419.8072762720377</v>
+        <v>462.7173418222346</v>
       </c>
       <c r="AB2" t="n">
-        <v>574.3988359853143</v>
+        <v>633.1102807295804</v>
       </c>
       <c r="AC2" t="n">
-        <v>519.5790172527047</v>
+        <v>572.6871241126083</v>
       </c>
       <c r="AD2" t="n">
-        <v>419807.2762720377</v>
+        <v>462717.3418222346</v>
       </c>
       <c r="AE2" t="n">
-        <v>574398.8359853143</v>
+        <v>633110.2807295804</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.76381664445077e-06</v>
+        <v>3.998613934655713e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.08541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>519579.0172527048</v>
+        <v>572687.1241126084</v>
       </c>
     </row>
     <row r="3">
@@ -5404,28 +5404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>167.6688690594198</v>
+        <v>193.3296033383864</v>
       </c>
       <c r="AB3" t="n">
-        <v>229.4119436754411</v>
+        <v>264.5220923876044</v>
       </c>
       <c r="AC3" t="n">
-        <v>207.5171897528084</v>
+        <v>239.2764751492971</v>
       </c>
       <c r="AD3" t="n">
-        <v>167668.8690594198</v>
+        <v>193329.6033383864</v>
       </c>
       <c r="AE3" t="n">
-        <v>229411.9436754411</v>
+        <v>264522.0923876044</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.720913517076217e-06</v>
+        <v>6.830087882851132e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.489583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>207517.1897528084</v>
+        <v>239276.4751492972</v>
       </c>
     </row>
     <row r="4">
@@ -5510,28 +5510,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>167.7038884318498</v>
+        <v>193.3646227108164</v>
       </c>
       <c r="AB4" t="n">
-        <v>229.4598587257455</v>
+        <v>264.5700074379088</v>
       </c>
       <c r="AC4" t="n">
-        <v>207.5605318579609</v>
+        <v>239.3198172544497</v>
       </c>
       <c r="AD4" t="n">
-        <v>167703.8884318498</v>
+        <v>193364.6227108164</v>
       </c>
       <c r="AE4" t="n">
-        <v>229459.8587257455</v>
+        <v>264570.0074379088</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.732383466438663e-06</v>
+        <v>6.846682290241562e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.472916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>207560.5318579609</v>
+        <v>239319.8172544497</v>
       </c>
     </row>
   </sheetData>
@@ -5807,28 +5807,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.9206099912756</v>
+        <v>206.1332547234787</v>
       </c>
       <c r="AB2" t="n">
-        <v>237.9658514257463</v>
+        <v>282.0406130699124</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.2547245529121</v>
+        <v>255.1230528050894</v>
       </c>
       <c r="AD2" t="n">
-        <v>173920.6099912756</v>
+        <v>206133.2547234787</v>
       </c>
       <c r="AE2" t="n">
-        <v>237965.8514257463</v>
+        <v>282040.6130699124</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.522027817058422e-06</v>
+        <v>6.790659597114059e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.329166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>215254.7245529121</v>
+        <v>255123.0528050894</v>
       </c>
     </row>
     <row r="3">
@@ -5913,28 +5913,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>171.0252047792688</v>
+        <v>195.3127219874163</v>
       </c>
       <c r="AB3" t="n">
-        <v>234.004230278418</v>
+        <v>267.2354828122259</v>
       </c>
       <c r="AC3" t="n">
-        <v>211.6711949677132</v>
+        <v>241.7309034000611</v>
       </c>
       <c r="AD3" t="n">
-        <v>171025.2047792688</v>
+        <v>195312.7219874163</v>
       </c>
       <c r="AE3" t="n">
-        <v>234004.230278418</v>
+        <v>267235.4828122259</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.591071267281935e-06</v>
+        <v>6.894341084014586e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.21875</v>
       </c>
       <c r="AH3" t="n">
-        <v>211671.1949677132</v>
+        <v>241730.9034000611</v>
       </c>
     </row>
   </sheetData>
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.855706456739</v>
+        <v>205.2884744250603</v>
       </c>
       <c r="AB2" t="n">
-        <v>237.8770475464515</v>
+        <v>280.8847473965404</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.1743959912201</v>
+        <v>254.077501329316</v>
       </c>
       <c r="AD2" t="n">
-        <v>173855.706456739</v>
+        <v>205288.4744250603</v>
       </c>
       <c r="AE2" t="n">
-        <v>237877.0475464515</v>
+        <v>280884.7473965404</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.369909295736177e-06</v>
+        <v>6.702334175243398e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.900000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>215174.3959912201</v>
+        <v>254077.5013293161</v>
       </c>
     </row>
   </sheetData>
@@ -10192,28 +10192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.9169768253437</v>
+        <v>228.1729364212286</v>
       </c>
       <c r="AB2" t="n">
-        <v>259.8527862380056</v>
+        <v>312.1962778908921</v>
       </c>
       <c r="AC2" t="n">
-        <v>235.0528010252021</v>
+        <v>282.4007032993058</v>
       </c>
       <c r="AD2" t="n">
-        <v>189916.9768253437</v>
+        <v>228172.9364212286</v>
       </c>
       <c r="AE2" t="n">
-        <v>259852.7862380056</v>
+        <v>312196.2778908921</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.078022759103139e-06</v>
+        <v>6.371830120609007e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.758333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>235052.8010252021</v>
+        <v>282400.7032993058</v>
       </c>
     </row>
   </sheetData>
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>266.4734296771524</v>
+        <v>310.1387152861201</v>
       </c>
       <c r="AB2" t="n">
-        <v>364.6007024623031</v>
+        <v>424.3454726089368</v>
       </c>
       <c r="AC2" t="n">
-        <v>329.8037231396</v>
+        <v>383.8465362757505</v>
       </c>
       <c r="AD2" t="n">
-        <v>266473.4296771524</v>
+        <v>310138.7152861201</v>
       </c>
       <c r="AE2" t="n">
-        <v>364600.7024623031</v>
+        <v>424345.4726089368</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.105768455578884e-06</v>
+        <v>5.061396726978167e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.34166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>329803.7231396</v>
+        <v>383846.5362757505</v>
       </c>
     </row>
   </sheetData>
@@ -10786,28 +10786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>226.8944465803788</v>
+        <v>259.9979777912458</v>
       </c>
       <c r="AB2" t="n">
-        <v>310.4469916876513</v>
+        <v>355.7407035152306</v>
       </c>
       <c r="AC2" t="n">
-        <v>280.8183665161632</v>
+        <v>321.7893100569494</v>
       </c>
       <c r="AD2" t="n">
-        <v>226894.4465803788</v>
+        <v>259997.9777912459</v>
       </c>
       <c r="AE2" t="n">
-        <v>310446.9916876513</v>
+        <v>355740.7035152306</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.937988124790312e-06</v>
+        <v>5.817908064971496e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.139583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>280818.3665161632</v>
+        <v>321789.3100569494</v>
       </c>
     </row>
     <row r="3">
@@ -10892,28 +10892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>162.6620485000473</v>
+        <v>195.76549020236</v>
       </c>
       <c r="AB3" t="n">
-        <v>222.5613909007774</v>
+        <v>267.8549802586354</v>
       </c>
       <c r="AC3" t="n">
-        <v>201.3204441201451</v>
+        <v>242.2912768796556</v>
       </c>
       <c r="AD3" t="n">
-        <v>162662.0485000473</v>
+        <v>195765.49020236</v>
       </c>
       <c r="AE3" t="n">
-        <v>222561.3909007774</v>
+        <v>267854.9802586354</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.694719480931396e-06</v>
+        <v>6.935888444900767e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.827083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>201320.4441201451</v>
+        <v>242291.2768796555</v>
       </c>
     </row>
   </sheetData>
@@ -11189,28 +11189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>368.87246158593</v>
+        <v>411.4321244434427</v>
       </c>
       <c r="AB2" t="n">
-        <v>504.7075754463492</v>
+        <v>562.9395837678089</v>
       </c>
       <c r="AC2" t="n">
-        <v>456.5389928072801</v>
+        <v>509.2134199836767</v>
       </c>
       <c r="AD2" t="n">
-        <v>368872.46158593</v>
+        <v>411432.1244434427</v>
       </c>
       <c r="AE2" t="n">
-        <v>504707.5754463492</v>
+        <v>562939.583767809</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.967996112623135e-06</v>
+        <v>4.310031993258086e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.40833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>456538.99280728</v>
+        <v>509213.4199836766</v>
       </c>
     </row>
     <row r="3">
@@ -11295,28 +11295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>166.2042937254436</v>
+        <v>191.8765831021348</v>
       </c>
       <c r="AB3" t="n">
-        <v>227.4080470909923</v>
+        <v>262.5340059976373</v>
       </c>
       <c r="AC3" t="n">
-        <v>205.7045422458922</v>
+        <v>237.4781289340911</v>
       </c>
       <c r="AD3" t="n">
-        <v>166204.2937254436</v>
+        <v>191876.5831021348</v>
       </c>
       <c r="AE3" t="n">
-        <v>227408.0470909923</v>
+        <v>262534.0059976373</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.725336869320412e-06</v>
+        <v>6.861987790035568e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.537500000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>205704.5422458922</v>
+        <v>237478.1289340911</v>
       </c>
     </row>
   </sheetData>
@@ -11592,28 +11592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>347.3180693084016</v>
+        <v>404.1581297244699</v>
       </c>
       <c r="AB2" t="n">
-        <v>475.2159050195597</v>
+        <v>552.9869832873119</v>
       </c>
       <c r="AC2" t="n">
-        <v>429.8619660142039</v>
+        <v>500.2106817244756</v>
       </c>
       <c r="AD2" t="n">
-        <v>347318.0693084016</v>
+        <v>404158.1297244699</v>
       </c>
       <c r="AE2" t="n">
-        <v>475215.9050195597</v>
+        <v>552986.9832873119</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.449936698189361e-06</v>
+        <v>4.083898511000719e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.2</v>
       </c>
       <c r="AH2" t="n">
-        <v>429861.9660142038</v>
+        <v>500210.6817244756</v>
       </c>
     </row>
   </sheetData>
@@ -11889,28 +11889,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.990941993991</v>
+        <v>203.7611058972541</v>
       </c>
       <c r="AB2" t="n">
-        <v>235.3255945409191</v>
+        <v>278.7949343940532</v>
       </c>
       <c r="AC2" t="n">
-        <v>212.8664500795481</v>
+        <v>252.1871371467145</v>
       </c>
       <c r="AD2" t="n">
-        <v>171990.941993991</v>
+        <v>203761.105897254</v>
       </c>
       <c r="AE2" t="n">
-        <v>235325.5945409191</v>
+        <v>278794.9343940532</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.464778318769663e-06</v>
+        <v>6.794975687855665e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.618749999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>212866.4500795481</v>
+        <v>252187.1371467146</v>
       </c>
     </row>
     <row r="3">
@@ -11995,28 +11995,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>172.7481558941967</v>
+        <v>204.5183197974598</v>
       </c>
       <c r="AB3" t="n">
-        <v>236.3616480050996</v>
+        <v>279.8309878582338</v>
       </c>
       <c r="AC3" t="n">
-        <v>213.8036240552177</v>
+        <v>253.1243111223842</v>
       </c>
       <c r="AD3" t="n">
-        <v>172748.1558941967</v>
+        <v>204518.3197974598</v>
       </c>
       <c r="AE3" t="n">
-        <v>236361.6480050996</v>
+        <v>279830.9878582337</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.464941618514323e-06</v>
+        <v>6.795224214818389e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.618749999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>213803.6240552177</v>
+        <v>253124.3111223842</v>
       </c>
     </row>
   </sheetData>
@@ -12292,28 +12292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>181.498231469204</v>
+        <v>213.9925238807361</v>
       </c>
       <c r="AB2" t="n">
-        <v>248.3338874329086</v>
+        <v>292.7940118573511</v>
       </c>
       <c r="AC2" t="n">
-        <v>224.633249755184</v>
+        <v>264.8501623047484</v>
       </c>
       <c r="AD2" t="n">
-        <v>181498.231469204</v>
+        <v>213992.5238807361</v>
       </c>
       <c r="AE2" t="n">
-        <v>248333.8874329086</v>
+        <v>292794.0118573511</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.424402642245227e-06</v>
+        <v>6.605238019264227e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.402083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>224633.249755184</v>
+        <v>264850.1623047484</v>
       </c>
     </row>
     <row r="3">
@@ -12398,28 +12398,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>170.4973138885673</v>
+        <v>194.9960668562116</v>
       </c>
       <c r="AB3" t="n">
-        <v>233.281946672858</v>
+        <v>266.8022212918734</v>
       </c>
       <c r="AC3" t="n">
-        <v>211.0178450957363</v>
+        <v>241.3389917511244</v>
       </c>
       <c r="AD3" t="n">
-        <v>170497.3138885673</v>
+        <v>194996.0668562116</v>
       </c>
       <c r="AE3" t="n">
-        <v>233281.946672858</v>
+        <v>266802.2212918734</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.639797675111008e-06</v>
+        <v>6.926803567268633e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.060416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>211017.8450957363</v>
+        <v>241338.9917511244</v>
       </c>
     </row>
   </sheetData>
